--- a/Records27.xlsx
+++ b/Records27.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name=" Records 1" r:id="rId3" sheetId="1"/>
+    <sheet name=" Records 2" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -56,28 +56,28 @@
     <t>4/16/2020</t>
   </si>
   <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>NY</t>
+    <t>atl</t>
+  </si>
+  <si>
+    <t>ny</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>12:00</t>
   </si>
   <si>
-    <t>2:00</t>
-  </si>
-  <si>
-    <t>Carmen</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Carmen.smith@yahoo.com</t>
-  </si>
-  <si>
-    <t>123456789</t>
+    <t>carmen</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>caren@yahooboo.com</t>
+  </si>
+  <si>
+    <t>123654789</t>
   </si>
   <si>
     <t>female</t>
@@ -174,7 +174,7 @@
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -207,7 +207,7 @@
         <v>21</v>
       </c>
       <c r="M3" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="N3" t="s">
         <v>22</v>
